--- a/forms/sheets/dysbiosis_viral_assessment_v2.xlsx
+++ b/forms/sheets/dysbiosis_viral_assessment_v2.xlsx
@@ -8,8 +8,7 @@
     <sheet state="visible" name="FormQuestions" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="RemediationRules" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ResultContent" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="sheet" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Library" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Library" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
   <si>
     <t>Key</t>
   </si>
@@ -562,45 +561,6 @@
     <t>Elderberry: 4 droppers 5x daily (always in water);Camu Supreme: 3 caps 3x daily;Prenatal vitamins as directed</t>
   </si>
   <si>
-    <t>Sheet 1: Environment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supreme Nutrition, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Google Sans Text&quot;, sans-serif !important"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://supremenutritionproducts.com</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Google Sans Text&quot;, sans-serif !important"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>; Restart</t>
-    </r>
-  </si>
-  <si>
-    <t>Sheet 2: Pages</t>
-  </si>
-  <si>
-    <t>Sheet 3: FormQuestions</t>
-  </si>
-  <si>
-    <t>Sheet 4: RemediationRules</t>
-  </si>
-  <si>
-    <t>Sheet 5: ResultContent</t>
-  </si>
-  <si>
-    <t>Sheet 6: Library</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -738,10 +698,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -30428,784 +30384,35 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B25" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="5"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B5"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>38</v>
@@ -31213,16 +30420,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
